--- a/Eindafrekening/src/input_master.xlsx
+++ b/Eindafrekening/src/input_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ryanrent.sharepoint.com/sites/RyanRent/Gedeelde documenten/General/01_RyanRent&amp;Co/Aljereau/Eindafrekening Generator/Eindafrekening/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_4DDA2BBDB3A5243E4C871FFD554E09AB75310C55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD8C174-3905-1148-A8A0-32E84A90D3C0}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_4DDA2BBDB3A5243E4C871FFD554E09AB75310C55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{643F6F10-C0BB-B64F-A514-EAF64E72D304}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1313">
   <si>
     <t>COMPLETENESS DASHBOARD</t>
   </si>
@@ -4003,22 +4003,10 @@
     <t>0245</t>
   </si>
   <si>
-    <t>Schade</t>
-  </si>
-  <si>
-    <t>GWE</t>
-  </si>
-  <si>
-    <t>GWE_Item</t>
-  </si>
-  <si>
     <t>Basis</t>
   </si>
   <si>
-    <t xml:space="preserve">deuren </t>
-  </si>
-  <si>
-    <t>de</t>
+    <t>Eigen Beheer</t>
   </si>
 </sst>
 </file>
@@ -4028,7 +4016,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\€\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4048,6 +4036,12 @@
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4117,7 +4111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4143,6 +4137,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4627,7 +4622,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>_xlfn.UNIQUE(_xlfn._xlws.FILTER(Input!A2:A5000, Input!A2:A5000&lt;&gt;""))</f>
-        <v>2e Maasbosstraat 2 a</v>
+        <v>Nunspeetlaan 14</v>
       </c>
       <c r="B4" t="str">
         <f>IF(A4="","",IF(COUNTIFS(Input!$A:$A, A4, Input!$B:$B, "Basis")&gt;0, "OK", "MISSING"))</f>
@@ -4653,15 +4648,15 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>_xlfn.UNIQUE(_xlfn._xlws.FILTER(Input!A3:A5001, Input!A3:A5001&lt;&gt;""))</f>
-        <v>Acacia 2</v>
+        <v>Compierekade 15</v>
       </c>
       <c r="B5" t="str">
         <f>IF(A5="","",IF(COUNTIFS(Input!$A:$A, A5, Input!$B:$B, "Basis")&gt;0, "OK", "MISSING"))</f>
-        <v>MISSING</v>
+        <v>OK</v>
       </c>
       <c r="C5" t="str">
         <f>IF(A5="","",IF(COUNTIFS(Input!$A:$A, A5, Input!$B:$B, "GWE")&gt;0, "OK", "MISSING"))</f>
-        <v>OK</v>
+        <v>MISSING</v>
       </c>
       <c r="D5" t="str">
         <f>IF(A5="","",IF(COUNTIFS(Input!$A:$A, A5, Input!$B:$B, "Schoonmaak")&gt;0, "OK", "MISSING"))</f>
@@ -4669,7 +4664,7 @@
       </c>
       <c r="E5" t="str">
         <f>IF(A5="","",COUNTIFS(Input!$A:$A, A5, Input!$B:$B, "Schade") &amp; " Items")</f>
-        <v>1 Items</v>
+        <v>0 Items</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -4677,107 +4672,107 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
+      <c r="A6" t="e" vm="1">
         <f>_xlfn.UNIQUE(_xlfn._xlws.FILTER(Input!A4:A5002, Input!A4:A5002&lt;&gt;""))</f>
-        <v>Acacialaan 9</v>
-      </c>
-      <c r="B6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" t="e" vm="2">
         <f>IF(A6="","",IF(COUNTIFS(Input!$A:$A, A6, Input!$B:$B, "Basis")&gt;0, "OK", "MISSING"))</f>
-        <v>MISSING</v>
-      </c>
-      <c r="C6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6" t="e" vm="2">
         <f>IF(A6="","",IF(COUNTIFS(Input!$A:$A, A6, Input!$B:$B, "GWE")&gt;0, "OK", "MISSING"))</f>
-        <v>MISSING</v>
-      </c>
-      <c r="D6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" t="e" vm="2">
         <f>IF(A6="","",IF(COUNTIFS(Input!$A:$A, A6, Input!$B:$B, "Schoonmaak")&gt;0, "OK", "MISSING"))</f>
-        <v>MISSING</v>
-      </c>
-      <c r="E6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" t="e" vm="2">
         <f>IF(A6="","",COUNTIFS(Input!$A:$A, A6, Input!$B:$B, "Schade") &amp; " Items")</f>
-        <v>1 Items</v>
-      </c>
-      <c r="F6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" t="e" vm="2">
         <f t="shared" si="0"/>
-        <v>⚠️ INCOMPLETE</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
+      <c r="A7" t="e" vm="1">
         <f>_xlfn.UNIQUE(_xlfn._xlws.FILTER(Input!A5:A5003, Input!A5:A5003&lt;&gt;""))</f>
-        <v>Acacia 2</v>
-      </c>
-      <c r="B7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" t="e" vm="2">
         <f>IF(A7="","",IF(COUNTIFS(Input!$A:$A, A7, Input!$B:$B, "Basis")&gt;0, "OK", "MISSING"))</f>
-        <v>MISSING</v>
-      </c>
-      <c r="C7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" t="e" vm="2">
         <f>IF(A7="","",IF(COUNTIFS(Input!$A:$A, A7, Input!$B:$B, "GWE")&gt;0, "OK", "MISSING"))</f>
-        <v>OK</v>
-      </c>
-      <c r="D7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" t="e" vm="2">
         <f>IF(A7="","",IF(COUNTIFS(Input!$A:$A, A7, Input!$B:$B, "Schoonmaak")&gt;0, "OK", "MISSING"))</f>
-        <v>MISSING</v>
-      </c>
-      <c r="E7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" t="e" vm="2">
         <f>IF(A7="","",COUNTIFS(Input!$A:$A, A7, Input!$B:$B, "Schade") &amp; " Items")</f>
-        <v>1 Items</v>
-      </c>
-      <c r="F7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="e" vm="2">
         <f t="shared" si="0"/>
-        <v>⚠️ INCOMPLETE</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
+      <c r="A8" t="e" vm="1">
         <f>_xlfn.UNIQUE(_xlfn._xlws.FILTER(Input!A6:A5004, Input!A6:A5004&lt;&gt;""))</f>
-        <v>Acacia 2</v>
-      </c>
-      <c r="B8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" t="e" vm="2">
         <f>IF(A8="","",IF(COUNTIFS(Input!$A:$A, A8, Input!$B:$B, "Basis")&gt;0, "OK", "MISSING"))</f>
-        <v>MISSING</v>
-      </c>
-      <c r="C8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" t="e" vm="2">
         <f>IF(A8="","",IF(COUNTIFS(Input!$A:$A, A8, Input!$B:$B, "GWE")&gt;0, "OK", "MISSING"))</f>
-        <v>OK</v>
-      </c>
-      <c r="D8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" t="e" vm="2">
         <f>IF(A8="","",IF(COUNTIFS(Input!$A:$A, A8, Input!$B:$B, "Schoonmaak")&gt;0, "OK", "MISSING"))</f>
-        <v>MISSING</v>
-      </c>
-      <c r="E8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" t="e" vm="2">
         <f>IF(A8="","",COUNTIFS(Input!$A:$A, A8, Input!$B:$B, "Schade") &amp; " Items")</f>
-        <v>1 Items</v>
-      </c>
-      <c r="F8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" t="e" vm="2">
         <f t="shared" si="0"/>
-        <v>⚠️ INCOMPLETE</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
+      <c r="A9" t="e" vm="1">
         <f>_xlfn.UNIQUE(_xlfn._xlws.FILTER(Input!A7:A5005, Input!A7:A5005&lt;&gt;""))</f>
-        <v>Acacia 2</v>
-      </c>
-      <c r="B9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" t="e" vm="2">
         <f>IF(A9="","",IF(COUNTIFS(Input!$A:$A, A9, Input!$B:$B, "Basis")&gt;0, "OK", "MISSING"))</f>
-        <v>MISSING</v>
-      </c>
-      <c r="C9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" t="e" vm="2">
         <f>IF(A9="","",IF(COUNTIFS(Input!$A:$A, A9, Input!$B:$B, "GWE")&gt;0, "OK", "MISSING"))</f>
-        <v>OK</v>
-      </c>
-      <c r="D9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" t="e" vm="2">
         <f>IF(A9="","",IF(COUNTIFS(Input!$A:$A, A9, Input!$B:$B, "Schoonmaak")&gt;0, "OK", "MISSING"))</f>
-        <v>MISSING</v>
-      </c>
-      <c r="E9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" t="e" vm="2">
         <f>IF(A9="","",COUNTIFS(Input!$A:$A, A9, Input!$B:$B, "Schade") &amp; " Items")</f>
-        <v>1 Items</v>
-      </c>
-      <c r="F9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" t="e" vm="2">
         <f t="shared" si="0"/>
-        <v>⚠️ INCOMPLETE</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5954,9 +5949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6110,31 +6105,39 @@
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>955</v>
       </c>
       <c r="B2" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>959</v>
       </c>
       <c r="D2" s="9" t="str">
         <f>IF(A2="","",VLOOKUP(A2,Lists!$A:$B,2,FALSE))</f>
-        <v>0148</v>
+        <v>0001</v>
       </c>
       <c r="E2" s="9">
         <f>IF(C2="","",VLOOKUP(C2,Lists!$C:$D,2,FALSE))</f>
-        <v>100098</v>
+        <v>50398</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
+      <c r="H2" s="13">
+        <v>45002</v>
+      </c>
+      <c r="I2" s="13">
+        <v>45991</v>
+      </c>
       <c r="J2" s="10">
-        <f>IF(A2="","",IFERROR(VLOOKUP(A2,Lists!$A:$H,8,FALSE),0))</f>
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1312</v>
       </c>
       <c r="L2" s="10">
         <f>IF(A2="","",IFERROR(VLOOKUP(A2,Lists!$A:$H,7,FALSE),0))</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M2" s="11">
         <f t="shared" ref="M2:M33" si="0">IF(K2="Eigen Beheer",0,IF(AND(ISNUMBER(L2),I2&lt;&gt;"",H2&lt;&gt;""),(L2*12/365)*(I2-H2),0))</f>
@@ -6178,46 +6181,39 @@
         <f t="shared" ref="AO2:AO33" si="8">IF(AND(AL2&lt;&gt;"",AN2&lt;&gt;""),AL2+AN2,"")</f>
         <v/>
       </c>
-      <c r="AP2">
-        <v>300</v>
-      </c>
-      <c r="AQ2">
-        <v>4</v>
-      </c>
-      <c r="AR2">
-        <v>5</v>
-      </c>
-      <c r="AS2">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
         <v>1311</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>IF(A3="","",VLOOKUP(A3,Lists!$A:$B,2,FALSE))</f>
-        <v>0003</v>
+        <v>0345</v>
       </c>
       <c r="E3" s="9">
         <f>IF(C3="","",VLOOKUP(C3,Lists!$C:$D,2,FALSE))</f>
-        <v>100098</v>
+        <v>50189</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
+      <c r="H3" s="13">
+        <v>45029</v>
+      </c>
+      <c r="I3" s="13">
+        <v>45780</v>
+      </c>
       <c r="J3" s="10">
-        <f>IF(A3="","",IFERROR(VLOOKUP(A3,Lists!$A:$H,8,FALSE),0))</f>
-        <v>2022.35</v>
+        <v>500</v>
       </c>
       <c r="L3" s="10">
         <f>IF(A3="","",IFERROR(VLOOKUP(A3,Lists!$A:$H,7,FALSE),0))</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M3" s="11">
         <f t="shared" si="0"/>
@@ -6240,61 +6236,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AJ3">
-        <v>3</v>
-      </c>
-      <c r="AK3">
-        <v>30</v>
-      </c>
-      <c r="AL3" s="11">
+      <c r="AL3" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="AM3" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="AN3" s="11">
+        <v/>
+      </c>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AO3" s="11">
+        <v/>
+      </c>
+      <c r="AO3" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>108.9</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C4" t="s">
-        <v>467</v>
-      </c>
       <c r="D4" s="9" t="str">
         <f>IF(A4="","",VLOOKUP(A4,Lists!$A:$B,2,FALSE))</f>
-        <v>0223</v>
-      </c>
-      <c r="E4" s="9">
+        <v/>
+      </c>
+      <c r="E4" s="9" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Lists!$C:$D,2,FALSE))</f>
-        <v>50216</v>
+        <v/>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="J4" s="10">
+      <c r="J4" s="10" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(A4,Lists!$A:$H,8,FALSE),0))</f>
-        <v>2300</v>
-      </c>
-      <c r="L4" s="10">
+        <v/>
+      </c>
+      <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(A4,Lists!$A:$H,7,FALSE),0))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
@@ -6321,10 +6294,6 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AK4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="AL4" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6340,32 +6309,23 @@
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
       <c r="D5" s="9" t="str">
         <f>IF(A5="","",VLOOKUP(A5,Lists!$A:$B,2,FALSE))</f>
-        <v>0003</v>
-      </c>
-      <c r="E5" s="9">
+        <v/>
+      </c>
+      <c r="E5" s="9" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Lists!$C:$D,2,FALSE))</f>
-        <v>100098</v>
+        <v/>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="J5" s="10">
+      <c r="J5" s="10" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(A5,Lists!$A:$H,8,FALSE),0))</f>
-        <v>2022.35</v>
-      </c>
-      <c r="L5" s="10">
+        <v/>
+      </c>
+      <c r="L5" s="10" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(A5,Lists!$A:$H,7,FALSE),0))</f>
-        <v>150</v>
+        <v/>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="0"/>
@@ -6411,32 +6371,23 @@
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
       <c r="D6" s="9" t="str">
         <f>IF(A6="","",VLOOKUP(A6,Lists!$A:$B,2,FALSE))</f>
-        <v>0003</v>
-      </c>
-      <c r="E6" s="9">
+        <v/>
+      </c>
+      <c r="E6" s="9" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Lists!$C:$D,2,FALSE))</f>
-        <v>100098</v>
+        <v/>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="J6" s="10">
+      <c r="J6" s="10" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(A6,Lists!$A:$H,8,FALSE),0))</f>
-        <v>2022.35</v>
-      </c>
-      <c r="L6" s="10">
+        <v/>
+      </c>
+      <c r="L6" s="10" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(A6,Lists!$A:$H,7,FALSE),0))</f>
-        <v>150</v>
+        <v/>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
@@ -6482,32 +6433,23 @@
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
       <c r="D7" s="9" t="str">
         <f>IF(A7="","",VLOOKUP(A7,Lists!$A:$B,2,FALSE))</f>
-        <v>0003</v>
-      </c>
-      <c r="E7" s="9">
+        <v/>
+      </c>
+      <c r="E7" s="9" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Lists!$C:$D,2,FALSE))</f>
-        <v>100098</v>
+        <v/>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="J7" s="10">
+      <c r="J7" s="10" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(A7,Lists!$A:$H,8,FALSE),0))</f>
-        <v>2022.35</v>
-      </c>
-      <c r="L7" s="10">
+        <v/>
+      </c>
+      <c r="L7" s="10" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(A7,Lists!$A:$H,7,FALSE),0))</f>
-        <v>150</v>
+        <v/>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
@@ -18581,6 +18523,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D2:S5000">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>$B2&lt;&gt;"Basis"</formula>
@@ -27146,17 +27089,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a5dd83b0615c7ab65f6e497dc3f1a67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b3083ab368e81f90f854d4b93d60013" ns2:_="" ns3:_="">
     <xsd:import namespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
@@ -27391,6 +27323,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -27401,23 +27344,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A939C4CB-A8AE-4A02-AC3D-9F53A1014187}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
-    <ds:schemaRef ds:uri="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{408D3653-E47C-48BE-8888-8A53021EB379}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27436,6 +27362,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A939C4CB-A8AE-4A02-AC3D-9F53A1014187}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA3DC39-85EB-4F92-A16E-47606092B457}">
   <ds:schemaRefs>
